--- a/testdata/BillingCenter.xlsx
+++ b/testdata/BillingCenter.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\asrikanth\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9CA6F-4305-470C-A470-D830ED968908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{74188434-37B6-4074-AFBB-32C844115BCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="19740" windowHeight="10965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,8 @@
     <sheet name="AcctSummary" sheetId="5" r:id="rId4"/>
     <sheet name="Invoice" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>TD_UserName</t>
   </si>
@@ -740,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3520C8-D792-4977-99E0-C45876A8E20A}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,12 +801,24 @@
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1050,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729A753F-FC84-49D2-8EB2-5A2921F6B535}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/testdata/BillingCenter.xlsx
+++ b/testdata/BillingCenter.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\asrikanth\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash Gowda\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9CA6F-4305-470C-A470-D830ED968908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F524D-E591-41C3-A254-BDB4CD1EB4D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="975" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Account" sheetId="2" r:id="rId2"/>
-    <sheet name="Policy" sheetId="3" r:id="rId3"/>
-    <sheet name="AcctSummary" sheetId="5" r:id="rId4"/>
-    <sheet name="Invoice" sheetId="4" r:id="rId5"/>
+    <sheet name="searchValues" sheetId="10" r:id="rId2"/>
+    <sheet name="Account" sheetId="2" r:id="rId3"/>
+    <sheet name="Policy" sheetId="3" r:id="rId4"/>
+    <sheet name="DirectBillPayment" sheetId="11" r:id="rId5"/>
+    <sheet name="AcctSummary" sheetId="5" r:id="rId6"/>
+    <sheet name="AcctDetails" sheetId="6" r:id="rId7"/>
+    <sheet name="Contacts" sheetId="7" r:id="rId8"/>
+    <sheet name="Invoices" sheetId="4" r:id="rId9"/>
+    <sheet name="PolicySummary" sheetId="8" r:id="rId10"/>
+    <sheet name="PolicyDetails" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
-  <si>
-    <t>TD_UserName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
   <si>
     <t>su</t>
   </si>
@@ -106,9 +109,6 @@
     <t>User7</t>
   </si>
   <si>
-    <t>TD_Password</t>
-  </si>
-  <si>
     <t>TD_AccountName</t>
   </si>
   <si>
@@ -130,9 +130,6 @@
     <t>QA1BILLINGPLAN01</t>
   </si>
   <si>
-    <t>BillPlan1</t>
-  </si>
-  <si>
     <t>BillPlan2</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>B Monthly 10% Down, Max 11 installments</t>
   </si>
   <si>
-    <t>PaymentPlan1</t>
-  </si>
-  <si>
     <t>PaymentPlan2</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>Premium</t>
   </si>
   <si>
-    <t>AcctSumry1</t>
-  </si>
-  <si>
     <t>AcctSumry2</t>
   </si>
   <si>
@@ -220,23 +211,200 @@
     <t>AcctSumry5</t>
   </si>
   <si>
-    <t>InvoiceValues1</t>
-  </si>
-  <si>
-    <t>InvoiceValues2</t>
-  </si>
-  <si>
-    <t>TD_InoiveEMI</t>
-  </si>
-  <si>
     <t>$1,000.00</t>
+  </si>
+  <si>
+    <t>GW_Username</t>
+  </si>
+  <si>
+    <t>GW_Password</t>
+  </si>
+  <si>
+    <t>GW_Login_Button</t>
+  </si>
+  <si>
+    <t>GW_Setting_Link</t>
+  </si>
+  <si>
+    <t>GW_Logout_Link</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>GW_BC_Invoice</t>
+  </si>
+  <si>
+    <t>TD_ServiceTier</t>
+  </si>
+  <si>
+    <t>TD_SecurityZone</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Default Security Zone</t>
+  </si>
+  <si>
+    <t>TD_SearchAccountNumber</t>
+  </si>
+  <si>
+    <t>1000000308</t>
+  </si>
+  <si>
+    <t>TD_PrimaryContact</t>
+  </si>
+  <si>
+    <t>TD_Currency</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>TD_AccountNumber</t>
+  </si>
+  <si>
+    <t>TD_CreationDate</t>
+  </si>
+  <si>
+    <t>TD_Email</t>
+  </si>
+  <si>
+    <t>TD_TotalUnbilled</t>
+  </si>
+  <si>
+    <t>TD_TotalCurrentlyBilled</t>
+  </si>
+  <si>
+    <t>5678@guidewire.com</t>
+  </si>
+  <si>
+    <t>'$1,000.00</t>
+  </si>
+  <si>
+    <t>1000007771</t>
+  </si>
+  <si>
+    <t>TD_Type</t>
+  </si>
+  <si>
+    <t>TD_Name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>TD_Address1</t>
+  </si>
+  <si>
+    <t>TD_Address2</t>
+  </si>
+  <si>
+    <t>TD_State</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>TD_InvoiceNumber</t>
+  </si>
+  <si>
+    <t>TD_Status</t>
+  </si>
+  <si>
+    <t>TD_Due</t>
+  </si>
+  <si>
+    <t>06/26/2021</t>
+  </si>
+  <si>
+    <t>1000005585</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>TD_AdHoc</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TD_Amount</t>
+  </si>
+  <si>
+    <t>TD_InvoiceStream</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>TD_DueDate</t>
+  </si>
+  <si>
+    <t>TD_CancellationStatus</t>
+  </si>
+  <si>
+    <t>TD_DefaultPaymentMethod</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>TD_BillDate</t>
+  </si>
+  <si>
+    <t>TD_AssignedRisk</t>
+  </si>
+  <si>
+    <t>TD_ExpirationDate</t>
+  </si>
+  <si>
+    <t>TD_ClosureStatus</t>
+  </si>
+  <si>
+    <t>TD_RequireFinalAudit</t>
+  </si>
+  <si>
+    <t>05/18/2022</t>
+  </si>
+  <si>
+    <t>TD_PremiumCharges</t>
+  </si>
+  <si>
+    <t>TD_Total</t>
+  </si>
+  <si>
+    <t>36675678216</t>
+  </si>
+  <si>
+    <t>36675678216-1</t>
+  </si>
+  <si>
+    <t>1000007782</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +424,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +451,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -294,11 +481,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -309,16 +507,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +527,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,116 +837,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -736,309 +1025,456 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3520C8-D792-4977-99E0-C45876A8E20A}">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71F8AC9-A36C-49D9-9891-077F11566646}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>31</v>
+      <c r="F1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222CFAE0-9168-4C02-A943-4F9BE574003A}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609C42BF-E54F-4C6E-8490-1C1A1918364C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B240F2F-8AD3-49E3-9150-9222387F22C2}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3520C8-D792-4977-99E0-C45876A8E20A}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>49</v>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>50</v>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>51</v>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6705243-A037-4CA9-B29E-68E745D48062}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B240F2F-8AD3-49E3-9150-9222387F22C2}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="G2" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1047,43 +1483,413 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729A753F-FC84-49D2-8EB2-5A2921F6B535}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03A182C-4A83-40EC-82BA-4154075170BB}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="23">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6705243-A037-4CA9-B29E-68E745D48062}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C58BF8B-1280-4F12-9EAD-0C522762E5C1}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="24">
+        <f ca="1">TODAY()</f>
+        <v>44335</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BA4B8D-994F-445A-8329-A78DC1606E04}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729A753F-FC84-49D2-8EB2-5A2921F6B535}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="6"/>
+      <c r="B2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="27">
+        <f ca="1">TODAY()</f>
+        <v>44335</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>